--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Notes\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B954F5E-7D4E-4110-BD3B-3CDDC885B8AA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{B8D059CA-6E6D-45E3-A2AA-0A0F103055A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -603,7 +602,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1068,11 +1067,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB9EAB5-D0D3-4BF9-8A8F-ABF57B751082}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1121,11 +1120,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <f>D8+D21+D29</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2">
         <f>E8+E21+E29</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -1138,22 +1137,25 @@
       <c r="C8" s="5"/>
       <c r="D8" s="3">
         <f>SUM(D9:D20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
         <f>SUM(E9:E20)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -1169,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1193,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>11</v>
       </c>
@@ -1217,7 +1219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>13</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1241,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Notes\ThusyStudies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8B7FD-8BD4-4665-AA4C-7E3A0C84756B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -602,7 +603,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1067,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1120,11 +1121,11 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2">
         <f>D8+D21+D29</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
         <f>E8+E21+E29</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>184</v>
@@ -1137,11 +1138,11 @@
       <c r="C8" s="5"/>
       <c r="D8" s="3">
         <f>SUM(D9:D20)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
         <f>SUM(E9:E20)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -1149,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD8B7FD-8BD4-4665-AA4C-7E3A0C84756B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22949299-F182-42E8-ADF2-161393DC10D2}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="188">
   <si>
     <t>Module</t>
   </si>
@@ -571,15 +571,6 @@
   </si>
   <si>
     <t>jQuery Event Extensions</t>
-  </si>
-  <si>
-    <t>https://learn.jquery.com/</t>
-  </si>
-  <si>
-    <t>https://javascript.info/</t>
-  </si>
-  <si>
-    <t>http://www.htmldog.com/guides/css/</t>
   </si>
   <si>
     <t>Ajax</t>
@@ -1069,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G192"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1075,7 @@
     <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1101,7 +1092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -1110,7 +1101,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>SUM(A8:A39)</f>
         <v>0</v>
@@ -1127,11 +1118,8 @@
         <f>E8+E21+E29</f>
         <v>29</v>
       </c>
-      <c r="G7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1133,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>3</v>
       </c>
@@ -1156,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>4</v>
       </c>
@@ -1164,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>5</v>
       </c>
@@ -1172,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>6</v>
       </c>
@@ -1180,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>9</v>
       </c>
@@ -1204,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
       </c>
@@ -1352,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -1360,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>31</v>
       </c>
@@ -1368,7 +1356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>32</v>
       </c>
@@ -1376,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>33</v>
       </c>
@@ -1384,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>34</v>
       </c>
@@ -1392,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>35</v>
       </c>
@@ -1400,7 +1388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>36</v>
       </c>
@@ -1408,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>39</v>
@@ -1422,11 +1410,8 @@
         <f>E41+E58+E65+E77+E90+E102+E105+E117+E130+E135+E151+E157</f>
         <v>106</v>
       </c>
-      <c r="G40" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
         <v>40</v>
       </c>
@@ -1440,7 +1425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>41</v>
       </c>
@@ -1448,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>42</v>
       </c>
@@ -1456,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>43</v>
       </c>
@@ -1464,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>44</v>
       </c>
@@ -1472,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>45</v>
       </c>
@@ -1480,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>46</v>
       </c>
@@ -1488,7 +1473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>47</v>
       </c>
@@ -2352,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C145" t="s">
         <v>143</v>
       </c>
@@ -2360,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C146" t="s">
         <v>144</v>
       </c>
@@ -2368,7 +2353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C147" t="s">
         <v>145</v>
       </c>
@@ -2376,7 +2361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C148" t="s">
         <v>146</v>
       </c>
@@ -2384,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
         <v>147</v>
       </c>
@@ -2392,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C150" t="s">
         <v>148</v>
       </c>
@@ -2400,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
         <v>149</v>
       </c>
@@ -2414,7 +2399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C152" t="s">
         <v>150</v>
       </c>
@@ -2422,7 +2407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C153" t="s">
         <v>149</v>
       </c>
@@ -2430,7 +2415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C154" t="s">
         <v>151</v>
       </c>
@@ -2438,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C155" t="s">
         <v>152</v>
       </c>
@@ -2446,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C156" t="s">
         <v>153</v>
       </c>
@@ -2454,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
         <v>155</v>
       </c>
@@ -2468,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C158" t="s">
         <v>154</v>
       </c>
@@ -2476,7 +2461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2" t="s">
         <v>156</v>
@@ -2484,11 +2469,8 @@
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="G159" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>157</v>
       </c>
@@ -2710,7 +2692,7 @@
     </row>
     <row r="186" spans="2:5" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B186" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="3">
@@ -2724,7 +2706,7 @@
     </row>
     <row r="187" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C187" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -2732,7 +2714,7 @@
     </row>
     <row r="188" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C188" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -2740,7 +2722,7 @@
     </row>
     <row r="189" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C189" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E189">
         <v>1</v>
@@ -2748,7 +2730,7 @@
     </row>
     <row r="190" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C190" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E190">
         <v>1</v>
@@ -2756,7 +2738,7 @@
     </row>
     <row r="191" spans="2:5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="C191" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E191">
         <v>1</v>
@@ -2765,5 +2747,6 @@
     <row r="192" spans="2:5" collapsed="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A80C5-EEED-4293-904B-A2B6A098945C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C057BF-2D13-46C1-A636-963A4D668AEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -1317,9 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1337,9 +1335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F834-7AA6-4FC2-BC0A-B83018551A75}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1650,9 +1646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65680A0-BA66-4AF3-8DCA-4FAB5E04263D}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2703,8 +2697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C057BF-2D13-46C1-A636-963A4D668AEC}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44811A-A7FF-4B4E-B922-ADA71488EC9A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -1317,7 +1317,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2697,8 +2699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E44811A-A7FF-4B4E-B922-ADA71488EC9A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB89AB4-5290-4419-9475-C0F6A320E2F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
   <si>
     <t>Module</t>
   </si>
@@ -409,9 +409,6 @@
     <t>Scrolling</t>
   </si>
   <si>
-    <t>Page lifecycle: DOMContentLoaded, load, beforeunload, unload</t>
-  </si>
-  <si>
     <t>Resource loading: onload and onerror</t>
   </si>
   <si>
@@ -608,6 +605,12 @@
   </si>
   <si>
     <t>EX-NC</t>
+  </si>
+  <si>
+    <t>Page lifecycle</t>
+  </si>
+  <si>
+    <t>jquery</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1099,7 @@
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1122,10 +1125,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1177,10 +1180,21 @@
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="A5" s="2">
+        <f>jQuery!A1</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="2">
+        <f>jQuery!D1</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <f>jQuery!E1</f>
+        <v>29</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
@@ -1266,12 +1280,12 @@
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="168" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1298,7 @@
     <row r="175" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <row r="176" spans="2:2" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" outlineLevel="1" x14ac:dyDescent="0.25"/>
@@ -1317,9 +1331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1337,7 +1349,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F834-7AA6-4FC2-BC0A-B83018551A75}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1379,9 +1393,6 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1653,7 +1664,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -2420,7 +2431,7 @@
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -2428,7 +2439,7 @@
     </row>
     <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -2436,7 +2447,7 @@
     </row>
     <row r="91" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B91" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="3">
@@ -2450,7 +2461,7 @@
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -2458,7 +2469,7 @@
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -2466,7 +2477,7 @@
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -2474,7 +2485,7 @@
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -2482,7 +2493,7 @@
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B96" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3">
@@ -2496,7 +2507,7 @@
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2504,7 +2515,7 @@
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -2512,7 +2523,7 @@
     </row>
     <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -2520,7 +2531,7 @@
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -2528,7 +2539,7 @@
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -2536,7 +2547,7 @@
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -2544,7 +2555,7 @@
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -2552,7 +2563,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -2560,7 +2571,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -2568,7 +2579,7 @@
     </row>
     <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -2576,7 +2587,7 @@
     </row>
     <row r="107" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -2584,7 +2595,7 @@
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -2592,7 +2603,7 @@
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -2600,7 +2611,7 @@
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -2608,7 +2619,7 @@
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -2616,7 +2627,7 @@
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="3">
@@ -2630,7 +2641,7 @@
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -2638,7 +2649,7 @@
     </row>
     <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2646,7 +2657,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2654,7 +2665,7 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -2662,7 +2673,7 @@
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -2670,7 +2681,7 @@
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="3">
@@ -2684,7 +2695,7 @@
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -2699,9 +2710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2709,9 +2718,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2">
+        <f>SUM(A2:A33)</f>
+        <v>0</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2">
@@ -2725,7 +2737,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3">
@@ -2739,7 +2751,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2747,7 +2759,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2755,7 +2767,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2763,7 +2775,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2771,7 +2783,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2779,7 +2791,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2787,7 +2799,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2795,7 +2807,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2803,7 +2815,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2811,7 +2823,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2819,7 +2831,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2827,7 +2839,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2835,7 +2847,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2843,7 +2855,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2865,7 +2877,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2873,7 +2885,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2881,7 +2893,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2889,7 +2901,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2897,7 +2909,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2905,7 +2917,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2913,7 +2925,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2921,7 +2933,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2929,7 +2941,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2937,7 +2949,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2945,7 +2957,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="3">
@@ -2959,7 +2971,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2967,7 +2979,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2975,7 +2987,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -2983,7 +2995,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2991,7 +3003,7 @@
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33">
         <v>1</v>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB89AB4-5290-4419-9475-C0F6A320E2F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A7EAB-3939-44C6-A371-CD81C5230377}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="Exercise" sheetId="2" r:id="rId2"/>
-    <sheet name="CSS" sheetId="4" r:id="rId3"/>
-    <sheet name="JS" sheetId="5" r:id="rId4"/>
-    <sheet name="jQuery" sheetId="3" r:id="rId5"/>
+    <sheet name="Covered" sheetId="6" r:id="rId2"/>
+    <sheet name="Exercise" sheetId="2" r:id="rId3"/>
+    <sheet name="CSS" sheetId="4" r:id="rId4"/>
+    <sheet name="JS" sheetId="5" r:id="rId5"/>
+    <sheet name="jQuery" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
   <si>
     <t>Module</t>
   </si>
@@ -611,6 +612,90 @@
   </si>
   <si>
     <t>jquery</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Compiler</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>JIT</t>
+  </si>
+  <si>
+    <t>CTS</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Class N Objects</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Types of classes</t>
+  </si>
+  <si>
+    <t>encapsulation</t>
+  </si>
+  <si>
+    <t>inheritance</t>
+  </si>
+  <si>
+    <t>polysmorphisam</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>nested class</t>
+  </si>
+  <si>
+    <t>parent child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runtime </t>
+  </si>
+  <si>
+    <t>compile time</t>
+  </si>
+  <si>
+    <t>upcasting</t>
+  </si>
+  <si>
+    <t>downcasting</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>how initialize</t>
+  </si>
+  <si>
+    <t>String pool</t>
+  </si>
+  <si>
+    <t>managed unmanage</t>
+  </si>
+  <si>
+    <t>classs</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>methods</t>
   </si>
 </sst>
 </file>
@@ -1328,10 +1413,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8C831-C4F6-4DE4-BDF3-BFAB179B5753}">
+  <dimension ref="A2:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" t="s">
+        <v>220</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>212</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+      <c r="F18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1345,11 +1570,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F834-7AA6-4FC2-BC0A-B83018551A75}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65680A0-BA66-4AF3-8DCA-4FAB5E04263D}">
   <dimension ref="A1:E119"/>
   <sheetViews>
@@ -2706,7 +2931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B14A7EAB-3939-44C6-A371-CD81C5230377}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C58EE-26ED-43C0-862B-8A5D99019F43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="224">
   <si>
     <t>Module</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>methods</t>
+  </si>
+  <si>
+    <t>Access Modifiers</t>
+  </si>
+  <si>
+    <t>Methods</t>
   </si>
 </sst>
 </file>
@@ -1414,78 +1420,111 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8C831-C4F6-4DE4-BDF3-BFAB179B5753}">
-  <dimension ref="A2:F18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>196</v>
+      </c>
+      <c r="N2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>195</v>
       </c>
       <c r="C3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>197</v>
       </c>
       <c r="C5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>198</v>
       </c>
       <c r="C6" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>202</v>
       </c>
@@ -1499,17 +1538,17 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>205</v>
       </c>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6C58EE-26ED-43C0-862B-8A5D99019F43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405BD54-76C4-4947-AA77-A350CC95499B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="Covered" sheetId="6" r:id="rId2"/>
-    <sheet name="Exercise" sheetId="2" r:id="rId3"/>
-    <sheet name="CSS" sheetId="4" r:id="rId4"/>
-    <sheet name="JS" sheetId="5" r:id="rId5"/>
-    <sheet name="jQuery" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Covered" sheetId="6" r:id="rId3"/>
+    <sheet name="Exercise" sheetId="2" r:id="rId4"/>
+    <sheet name="CSS" sheetId="4" r:id="rId5"/>
+    <sheet name="JS" sheetId="5" r:id="rId6"/>
+    <sheet name="jQuery" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="235">
   <si>
     <t>Module</t>
   </si>
@@ -702,6 +703,39 @@
   </si>
   <si>
     <t>Methods</t>
+  </si>
+  <si>
+    <t>Minutes</t>
+  </si>
+  <si>
+    <t>Estd HrPoint</t>
+  </si>
+  <si>
+    <t>Act HrPoint</t>
+  </si>
+  <si>
+    <t>C# - OOP</t>
+  </si>
+  <si>
+    <t>C# - Core</t>
+  </si>
+  <si>
+    <t>C# - Compiler</t>
+  </si>
+  <si>
+    <t>C# - Multi Thread</t>
+  </si>
+  <si>
+    <t>C# - Exception</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>EVL HrPoint</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -782,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -846,6 +880,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -853,7 +915,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -865,6 +927,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -872,7 +945,78 @@
     <cellStyle name="Note" xfId="3" builtinId="10"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1419,10 +1563,249 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB735564-6B79-40AC-8FB9-F42F8EFEE94E}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="B2" s="9">
+        <v>10</v>
+      </c>
+      <c r="C2" s="9">
+        <v>8</v>
+      </c>
+      <c r="D2" s="9">
+        <f>C2*20</f>
+        <v>160</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H2" s="9">
+        <v>2</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9" t="str">
+        <f>IF(I2&gt;=9,"VGood",IF(I2&gt;=7,"Good",IF(I2&gt;=5,"Ok",IF(I2&gt;=3,"Poor","Very Poor"))))</f>
+        <v>Very Poor</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="B3" s="9">
+        <v>10</v>
+      </c>
+      <c r="C3" s="9">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D9" si="0">C3*20</f>
+        <v>60</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B4" s="9">
+        <v>10</v>
+      </c>
+      <c r="C4" s="9">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H4" s="9">
+        <v>2</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="9">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+      <formula>$B$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>$B$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8C831-C4F6-4DE4-BDF3-BFAB179B5753}">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1589,7 +1972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1609,7 +1992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F834-7AA6-4FC2-BC0A-B83018551A75}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -1919,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65680A0-BA66-4AF3-8DCA-4FAB5E04263D}">
   <dimension ref="A1:E119"/>
   <sheetViews>
@@ -2970,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
   <dimension ref="A1:E33"/>
   <sheetViews>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Notes\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8405BD54-76C4-4947-AA77-A350CC95499B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="JS" sheetId="5" r:id="rId6"/>
     <sheet name="jQuery" sheetId="3" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="236">
   <si>
     <t>Module</t>
   </si>
@@ -736,12 +735,15 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -945,7 +947,7 @@
     <cellStyle name="Note" xfId="3" builtinId="10"/>
     <cellStyle name="Output" xfId="2" builtinId="21"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -983,36 +985,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1330,7 +1302,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -1563,12 +1535,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB735564-6B79-40AC-8FB9-F42F8EFEE94E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1670,9 +1640,7 @@
       <c r="G4" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
@@ -1683,10 +1651,12 @@
       <c r="B5" s="9">
         <v>4</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>3</v>
+      </c>
       <c r="D5" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>230</v>
@@ -1700,12 +1670,14 @@
         <v>231</v>
       </c>
       <c r="B6" s="9">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
       <c r="D6" s="9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>231</v>
@@ -1715,8 +1687,12 @@
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
         <f t="shared" si="0"/>
@@ -1781,18 +1757,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>$B$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$B$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$B$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1802,7 +1778,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A8C831-C4F6-4DE4-BDF3-BFAB179B5753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1973,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B42A269A-44CA-4236-8E7E-EBA1DE30CC52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1993,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0F834-7AA6-4FC2-BC0A-B83018551A75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2303,7 +2279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65680A0-BA66-4AF3-8DCA-4FAB5E04263D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3354,7 +3330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73FB90E-C079-42AA-8D34-368E9124F5F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Notes\ThusyStudies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ThusyStudyPath\Path\ThusyStudies\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F8EF50-992A-40A3-B56E-BFDB8C614C37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="Covered" sheetId="6" r:id="rId3"/>
-    <sheet name="Exercise" sheetId="2" r:id="rId4"/>
-    <sheet name="CSS" sheetId="4" r:id="rId5"/>
-    <sheet name="JS" sheetId="5" r:id="rId6"/>
-    <sheet name="jQuery" sheetId="3" r:id="rId7"/>
+    <sheet name="Mod" sheetId="9" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId4"/>
+    <sheet name="Covered" sheetId="6" r:id="rId5"/>
+    <sheet name="Exercise" sheetId="2" r:id="rId6"/>
+    <sheet name="CSS" sheetId="4" r:id="rId7"/>
+    <sheet name="JS" sheetId="5" r:id="rId8"/>
+    <sheet name="jQuery" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -743,7 +746,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1302,11 +1305,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F198"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1535,10 +1538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74FF8D37-71A5-4F71-8EF5-EEDB7FAF1168}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1777,8 +1794,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB0C0EE-79EE-4431-93A5-403629B589F2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1948,8 +1977,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1968,8 +1997,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2278,8 +2307,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3329,8 +3358,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
